--- a/Software/HostComputer/protocol.xlsx
+++ b/Software/HostComputer/protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E0D4DCA-3AB2-49B2-A947-C27791CCE59D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{67F292D1-C0B8-4417-ABC7-F21AE08361D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00：函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -163,6 +159,14 @@
 位移：uint32_t X100
 时间戳0：uint32_t X100
 时间戳1：uint32_t X100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板子编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00/0x01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -604,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -624,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -644,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -664,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -684,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -701,7 +705,7 @@
     </row>
     <row r="9" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -740,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>0</v>
@@ -749,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
@@ -766,16 +770,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>0</v>
@@ -792,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
@@ -801,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>0</v>
@@ -914,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -923,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>0</v>
@@ -934,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -943,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>

--- a/Software/HostComputer/protocol.xlsx
+++ b/Software/HostComputer/protocol.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{67F292D1-C0B8-4417-ABC7-F21AE08361D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9327477A-470B-4826-83CD-2B0B006A7E3D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,24 +141,6 @@
   </si>
   <si>
     <t>Platform to PC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01：温湿度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度：uint32_t X100
-湿度：uint32_t X100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流：uint32_t X100
-电压：uint32_t X100
-力：uint32_t X100
-位移：uint32_t X100
-时间戳0：uint32_t X100
-时间戳1：uint32_t X100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -576,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -628,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -648,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -668,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -688,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -714,24 +696,12 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -739,25 +709,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -765,25 +723,13 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -792,24 +738,12 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>

--- a/Software/HostComputer/protocol.xlsx
+++ b/Software/HostComputer/protocol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9327477A-470B-4826-83CD-2B0B006A7E3D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{786AC1AA-C469-4293-B16C-57917629493A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>0x00/0x01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准：“CARLIB”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,6 +690,26 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Software/HostComputer/protocol.xlsx
+++ b/Software/HostComputer/protocol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{786AC1AA-C469-4293-B16C-57917629493A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F3F1D-B551-40AE-9590-EE06756A5768}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,6 +157,41 @@
   </si>
   <si>
     <t>校准：“CARLIB”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x55
+(无用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x56
+(无用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字：0x57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制类型：uint8_t：0-PID、1-BANG
+SetPoint：float
+Bind：      float
+KP：         float
+KI：          float
+KD：        float
+Frq：       uint8_t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关：uint8_t
+Bit7：1-进入控制模式；0-退出控制模式
+Bit6：1-进入调试模式；0-退出调试模式
+Bit5：1-重置输出信号；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -576,7 +611,7 @@
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -693,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,7 +739,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>30</v>
@@ -713,50 +748,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="8" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -779,9 +831,37 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Software/HostComputer/protocol.xlsx
+++ b/Software/HostComputer/protocol.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F3F1D-B551-40AE-9590-EE06756A5768}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BBAE23-E26B-4CCE-A49C-6C76C111C1ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="840" windowWidth="17640" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,17 +181,27 @@
     <t>控制类型：uint8_t：0-PID、1-BANG
 SetPoint：float
 Bind：      float
-KP：         float
-KI：          float
+KP/HV：         float
+KI/LV：          float
 KD：        float
 Frq：       uint8_t</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HV、LV表示棒棒控制下的高低电压值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>开关：uint8_t
-Bit7：1-进入控制模式；0-退出控制模式
-Bit6：1-进入调试模式；0-退出调试模式
-Bit5：1-重置输出信号；</t>
+Bit7：1-进入控制模式；0-退出控制模式；
+Bit6：1-进入调试模式；0-退出调试模式；
+Bit5：1-重置输出信号；
+Bit4：1-校准；
+Bit3：1-复位芯片；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,9 +621,10 @@
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -647,6 +658,9 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -748,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -786,6 +800,9 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/Software/HostComputer/protocol.xlsx
+++ b/Software/HostComputer/protocol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BBAE23-E26B-4CCE-A49C-6C76C111C1ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826BADFD-D300-4633-941E-8259BE2389B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="840" windowWidth="17640" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="864" windowWidth="17628" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>0x00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,21 +178,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>控制类型：uint8_t：0-PID、1-BANG
-SetPoint：float
-Bind：      float
-KP/HV：         float
-KI/LV：          float
-KD：        float
-Frq：       uint8_t</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HV、LV表示棒棒控制下的高低电压值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -204,12 +190,67 @@
 Bit3：1-复位芯片；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>HV、LV表示棒棒控制下的高低电压值
+所有控制周期10ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor:0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板子编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00/0x01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current:float
+Voltage:float
+Force:float
+Laser:float
+ErrorCode:uint8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制类型：uint8_t：0-PID、1-BANG、2-SerialPID
+SetPoint：float：位移mm、功率mW、电流mA、力mN
+OuterLoopKP/Bind：      float
+KP/HV：         float
+KI/LV：          float
+KD：        float
+闭环对象：uint8_t：0-位移、1-功率、2-电流、3-力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +314,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -302,7 +361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +379,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -609,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -620,9 +691,9 @@
     <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.109375" style="1" customWidth="1"/>
     <col min="8" max="10" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -630,14 +701,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -659,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
@@ -776,7 +847,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
@@ -796,12 +867,12 @@
         <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -811,22 +882,34 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -834,19 +917,31 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -861,20 +956,6 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -906,51 +987,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
